--- a/medicine/Enfance/Sandrine_Martin/Sandrine_Martin.xlsx
+++ b/medicine/Enfance/Sandrine_Martin/Sandrine_Martin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sandrine Martin est une illustratrice et auteure de bande dessinée française, née le 19 mai 1979.
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Diplômée de l'École nationale supérieure des arts décoratifs de Paris, Sandrine Martin dessine pour la presse et l'édition depuis 2004. Elle a ainsi travaillé pour Le Monde, Libération, Astrapi, Filotéo, Mes premiers J'aime Lire, Today in English… En parallèle, elle publie des courts récits semi-autobiographiques dans la revue de bande dessinée Lapin éditée par L'Association.
 En 2012, elle publie un recueil de dessins sur le couple intitulé La Montagne de sucre.
 En 2014, elle publie une biographie subjective en bande dessinée sur l'artiste Niki de Saint Phalle avec Dominique Osuch au scénario.
 Elle vit à Paris.
-Lors de la remise des Prix Atomium en 2021, elle remporte le prix de la BD citoyenne (5000€) avec la BD reportage Chez Toi (Casterman)[1].
+Lors de la remise des Prix Atomium en 2021, elle remporte le prix de la BD citoyenne (5000€) avec la BD reportage Chez Toi (Casterman).
 </t>
         </is>
       </c>
@@ -548,8 +562,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Illustration
-Ma Sœur et moi, Nathalie Leplongeon, éditions un-état-d’esprit, 2004
+          <t>Illustration</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Ma Sœur et moi, Nathalie Leplongeon, éditions un-état-d’esprit, 2004
 Mon premier Larousse des héros, Larousse, 2005
 L'Égypte en 200 questions, Du Tac au tac, Larousse, 2006
 Les animaux en 200 questions, Du Tac au tac, Larousse, 2006
@@ -575,9 +594,43 @@
 Pourquoi on écrit des romans..., Danièle Sallenave, 2011
 Abécédaire de l'Assemblée, Cécile Dutheil de la Rochère, Gallimard, 2011
 Je suis un papillon, Vincent Cuvellier
-Pourquoi moi je suis moi, Pierre Péju, Gallimard, 2014
-Bande dessinée
-Le souterrain, avec Xavier Gélard, éditions de l’An 2, 2005
+Pourquoi moi je suis moi, Pierre Péju, Gallimard, 2014</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sandrine_Martin</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sandrine_Martin</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Bande dessinée</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le souterrain, avec Xavier Gélard, éditions de l’An 2, 2005
 L'Œil lumineux, Actes Sud/l’An 2, 2008
 La Chambre de bonne, Poème-pizza, C'est ma chambre, Petites Niaiseuses, Karl-Marx Allee, Le Manoir fleuri, Hylda, récits publiés dans Lapin,numéros 37 à 43, L'Association, 2009-2010
 La Montagne de sucre, L'Apocalypse, 2012
@@ -587,33 +640,35 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Sandrine_Martin</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Sandrine_Martin</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Sélection du prix Artémisia 2016[2] pour Petites niaiseuses.</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Sélection du prix Artémisia 2016 pour Petites niaiseuses.</t>
         </is>
       </c>
     </row>
